--- a/documents/Github使い方.xlsx
+++ b/documents/Github使い方.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\仕事関係\WORK_GROUP\#11.Java課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24867D73-8943-4581-BD42-9690EE8D6983}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BEDBB-EDC4-4594-BE60-E2B6101D1409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="18270" windowHeight="10200" xr2:uid="{A4FD8682-59A0-4359-BCD9-408448015937}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="6" xr2:uid="{A4FD8682-59A0-4359-BCD9-408448015937}"/>
   </bookViews>
   <sheets>
     <sheet name="Gitのインストール" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>●</t>
     <phoneticPr fontId="2"/>
@@ -780,6 +780,54 @@
   </si>
   <si>
     <t>ブランチの作成</t>
+  </si>
+  <si>
+    <t>※どうやら、^と~では意味が違う</t>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここ参照</t>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/chihiro/items/d551c14cb9764454e0b9</t>
+  </si>
+  <si>
+    <t>~は、～～世代前という指定だが、^は、複数の親がいる場合の、どの親かを指定するっぽい</t>
+    <rPh sb="5" eb="7">
+      <t>セダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -930,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1031,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3468,7 +3519,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AU115" sqref="AU115"/>
     </sheetView>
   </sheetViews>
@@ -3547,7 +3598,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I578"/>
   <sheetViews>
-    <sheetView topLeftCell="A529" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A520" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BJ169" sqref="BJ169"/>
     </sheetView>
   </sheetViews>
@@ -5070,7 +5121,7 @@
   <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5159,9 +5210,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806FBDF-E55F-484F-A70A-78883670B25F}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:C40"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -5270,28 +5323,53 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E36" r:id="rId1" xr:uid="{9D71761D-7474-4E59-BC26-D89A5294E08F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/Github使い方.xlsx
+++ b/documents/Github使い方.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\仕事関係\WORK_GROUP\#11.Java課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BEDBB-EDC4-4594-BE60-E2B6101D1409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B3D69-5FE6-4382-86BE-061B50D831DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="6" xr2:uid="{A4FD8682-59A0-4359-BCD9-408448015937}"/>
+    <workbookView xWindow="-120" yWindow="450" windowWidth="18270" windowHeight="10200" xr2:uid="{A4FD8682-59A0-4359-BCD9-408448015937}"/>
   </bookViews>
   <sheets>
     <sheet name="Gitのインストール" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
   <si>
     <t>●</t>
     <phoneticPr fontId="2"/>
@@ -782,50 +782,120 @@
     <t>ブランチの作成</t>
   </si>
   <si>
-    <t>※どうやら、^と~では意味が違う</t>
-    <rPh sb="11" eb="13">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここ参照</t>
-    <rPh sb="2" eb="4">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://qiita.com/chihiro/items/d551c14cb9764454e0b9</t>
-  </si>
-  <si>
-    <t>~は、～～世代前という指定だが、^は、複数の親がいる場合の、どの親かを指定するっぽい</t>
-    <rPh sb="5" eb="7">
-      <t>セダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <t>1.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンドプロンプト（もしくは、git bash）を開く</t>
+    <rPh sb="25" eb="26">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>core.editerの後の文字は、使用するエディタによって異なる。</t>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diffコマンド、statusコマンド、branchコマンド実行時の色分けを設定</t>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語の文字化け防止と、ページング設定</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定した内容を確認</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git config --global --list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.前準備</t>
+    <rPh sb="2" eb="3">
       <t>マエ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B.ローカルリポジトリの作成～ブランチ作成、コミット作業</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オヤ</t>
+      <t>サクセイ</t>
     </rPh>
     <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シテイ</t>
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -834,7 +904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +935,15 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1033,7 +1112,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,14 +1809,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>154214</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>88473</xdr:rowOff>
     </xdr:to>
@@ -1762,7 +1841,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598714" y="1143000"/>
+          <a:off x="843642" y="1143000"/>
           <a:ext cx="9289143" cy="5231973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,16 +1853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14940</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>64061</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>79002</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1806,8 +1885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="13958454"/>
-          <a:ext cx="8896333" cy="5010728"/>
+          <a:off x="791881" y="13813796"/>
+          <a:ext cx="8804650" cy="4959792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1818,16 +1897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>102465</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>102464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1850,8 +1929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="20054454"/>
-          <a:ext cx="8832271" cy="4974647"/>
+          <a:off x="776942" y="20040871"/>
+          <a:ext cx="8740588" cy="4923711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,15 +1941,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>168233</xdr:colOff>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>41818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1894,8 +1973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="25711727"/>
-          <a:ext cx="8786090" cy="4948636"/>
+          <a:off x="816429" y="37528500"/>
+          <a:ext cx="8931233" cy="4804318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,15 +1985,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>161637</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>161636</xdr:colOff>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>94503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1938,8 +2017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="44207546"/>
-          <a:ext cx="8797636" cy="4955139"/>
+          <a:off x="798286" y="43099182"/>
+          <a:ext cx="8942779" cy="4810821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1950,16 +2029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>35314</xdr:rowOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>35315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1982,8 +2061,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="36933909"/>
-          <a:ext cx="8774544" cy="4942133"/>
+          <a:off x="798287" y="49756786"/>
+          <a:ext cx="8919687" cy="4797815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,16 +2073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>51902</xdr:rowOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>51901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2026,8 +2105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="56780545"/>
-          <a:ext cx="8762999" cy="4935630"/>
+          <a:off x="798287" y="55304376"/>
+          <a:ext cx="8908142" cy="4791311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,16 +2117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181428</xdr:colOff>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>16740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>116841</xdr:colOff>
-      <xdr:row>339</xdr:row>
-      <xdr:rowOff>39831</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>98697</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2070,8 +2149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="61681013"/>
-          <a:ext cx="8752841" cy="4929909"/>
+          <a:off x="780142" y="60060526"/>
+          <a:ext cx="8897984" cy="4785592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,16 +2161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>92363</xdr:colOff>
-      <xdr:row>372</xdr:row>
-      <xdr:rowOff>9305</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>65148</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>9304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2114,8 +2193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="55383546"/>
-          <a:ext cx="8728362" cy="4916122"/>
+          <a:off x="771072" y="66330287"/>
+          <a:ext cx="8873505" cy="4771803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,16 +2205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>69271</xdr:colOff>
-      <xdr:row>398</xdr:row>
-      <xdr:rowOff>192570</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>51128</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>2070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2158,8 +2237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="60682909"/>
-          <a:ext cx="8705271" cy="4903116"/>
+          <a:off x="780143" y="71473786"/>
+          <a:ext cx="8850414" cy="4764570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,16 +2249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>75844</xdr:colOff>
-      <xdr:row>428</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>93987</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2202,8 +2281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="79132546"/>
-          <a:ext cx="8711844" cy="4906818"/>
+          <a:off x="816429" y="76998287"/>
+          <a:ext cx="8856987" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2214,15 +2293,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>430</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>454</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>84941</xdr:colOff>
+      <xdr:row>455</xdr:row>
       <xdr:rowOff>186069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2246,8 +2325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="71674183"/>
-          <a:ext cx="8693727" cy="4896614"/>
+          <a:off x="825500" y="82141787"/>
+          <a:ext cx="8838870" cy="4758068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,16 +2337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>75845</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>75844</xdr:colOff>
       <xdr:row>483</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>187884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2290,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="77169818"/>
-          <a:ext cx="8711844" cy="4906818"/>
+          <a:off x="798286" y="87475786"/>
+          <a:ext cx="8856987" cy="4759884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2302,16 +2381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>487</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>34848</xdr:colOff>
-      <xdr:row>511</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>16705</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2334,8 +2413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="82688546"/>
-          <a:ext cx="8670848" cy="4883727"/>
+          <a:off x="780143" y="92832877"/>
+          <a:ext cx="8815991" cy="4739408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2390,15 +2469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>515</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>516</xdr:row>
       <xdr:rowOff>16735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>539</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>14019</xdr:colOff>
+      <xdr:row>540</xdr:row>
       <xdr:rowOff>189645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2422,8 +2501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="101131826"/>
-          <a:ext cx="8659090" cy="4883455"/>
+          <a:off x="789215" y="98351021"/>
+          <a:ext cx="8804233" cy="4744910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,15 +2514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:colOff>21441</xdr:colOff>
+      <xdr:row>545</xdr:row>
       <xdr:rowOff>69274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>178577</xdr:colOff>
-      <xdr:row>569</xdr:row>
-      <xdr:rowOff>23092</xdr:rowOff>
+      <xdr:colOff>15291</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2466,8 +2545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="969818" y="93726001"/>
-          <a:ext cx="8629850" cy="4860636"/>
+          <a:off x="819727" y="103928060"/>
+          <a:ext cx="8774993" cy="4716317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2478,16 +2557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>105947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>101006</xdr:rowOff>
+      <xdr:colOff>1357</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>160771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2510,8 +2589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="25757909"/>
-          <a:ext cx="8809181" cy="4961642"/>
+          <a:off x="799352" y="25939241"/>
+          <a:ext cx="8719534" cy="4910706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,16 +2601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23092</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15621</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>142891</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>105712</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>135420</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>180418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2554,8 +2633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1004456" y="31207364"/>
-          <a:ext cx="8559526" cy="4816257"/>
+          <a:off x="792562" y="31540824"/>
+          <a:ext cx="8471917" cy="4767359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2566,15 +2645,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>579</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>161636</xdr:colOff>
-      <xdr:row>602</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>170708</xdr:colOff>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>180228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2598,8 +2677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="112348818"/>
-          <a:ext cx="8601363" cy="4844591"/>
+          <a:off x="807357" y="110381968"/>
+          <a:ext cx="8743208" cy="4706046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,15 +2689,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>605</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>606</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>629</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>114537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2642,8 +2721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981364" y="117798273"/>
-          <a:ext cx="8566727" cy="4825083"/>
+          <a:off x="780143" y="115479286"/>
+          <a:ext cx="8708572" cy="4686537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,15 +2733,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>632</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>161636</xdr:colOff>
-      <xdr:row>656</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>143493</xdr:colOff>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>134046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2686,8 +2765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981365" y="123097636"/>
-          <a:ext cx="8601362" cy="4844591"/>
+          <a:off x="780143" y="120622786"/>
+          <a:ext cx="8743207" cy="4706046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2700,13 +2779,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2758,16 +2837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>102537</xdr:colOff>
-      <xdr:row>518</xdr:row>
-      <xdr:rowOff>146726</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>187030</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>41489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>45378</xdr:colOff>
-      <xdr:row>527</xdr:row>
-      <xdr:rowOff>27588</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>129870</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>82985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2782,8 +2861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2726424">
-          <a:off x="6316117" y="102310328"/>
-          <a:ext cx="1647317" cy="727932"/>
+          <a:off x="4981845" y="99359460"/>
+          <a:ext cx="2327496" cy="741126"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
           <a:avLst/>
@@ -2824,13 +2903,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>126998</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>46182</xdr:colOff>
-      <xdr:row>535</xdr:row>
+      <xdr:row>536</xdr:row>
       <xdr:rowOff>115456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2874,7 +2953,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>取り忘れた</a:t>
+            <a:t>この後のショットを取り忘れた。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
@@ -2882,7 +2961,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>実行後、なんか画面でてきてユーザー名とパスワード入力要求された</a:t>
+            <a:t>実行後、画面がでてきてユーザー名とパスワード入力要求された</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2893,13 +2972,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>576</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>579</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2954,13 +3033,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3011,13 +3090,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>150091</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>161635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3519,9 +3598,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E296"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU115" sqref="AU115"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3596,18 +3673,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9C603-1153-4D8D-B1EE-237EAFDE07D5}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I578"/>
+  <dimension ref="B2:I579"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BJ169" sqref="BJ169"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3615,9 +3690,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -3638,178 +3726,220 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68" s="1" t="s">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="1" t="s">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F70" s="1" t="s">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F71" s="1" t="s">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G100" s="1" t="s">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G101" s="1" t="s">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G102" s="1" t="s">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G130" s="1" t="s">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G131" s="1" t="s">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E196" s="1" t="s">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C161" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E225" s="1" t="s">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E226" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E259" s="1" t="s">
+    <row r="260" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E260" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="260" spans="5:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F260" s="2" t="s">
+    <row r="261" spans="5:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="F261" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E288" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E289" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E290" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F289" s="1" t="s">
+      <c r="F290" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E347" s="1" t="s">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E348" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E374" s="1" t="s">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E375" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E402" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E403" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E404" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E430" s="1" t="s">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E431" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E458" s="1" t="s">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E459" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E486" s="1" t="s">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E487" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="514" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E514" s="1" t="s">
+    <row r="515" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E515" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="515" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F515" s="1" t="s">
+    <row r="516" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F516" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G515" s="1" t="s">
+      <c r="G516" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E544" s="1" t="s">
+    <row r="545" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E545" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="572" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E572" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="573" spans="5:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E573" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="574" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E574" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="574" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="F574" s="1" t="s">
+    <row r="575" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F575" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="575" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G575" s="1" t="s">
+    <row r="576" spans="5:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G576" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H575" s="1" t="s">
+      <c r="H576" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="576" spans="5:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H576" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="577" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H577" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="578" spans="8:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H578" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="579" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H579" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5121,7 +5251,7 @@
   <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5210,11 +5340,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806FBDF-E55F-484F-A70A-78883670B25F}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:E42"/>
+  <dimension ref="B2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -5323,53 +5451,28 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="18"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E36" r:id="rId1" xr:uid="{9D71761D-7474-4E59-BC26-D89A5294E08F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>